--- a/consolidado.xlsx
+++ b/consolidado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1420"/>
+  <dimension ref="A1:G1424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37384,26 +37384,26 @@
     </row>
     <row r="1280">
       <c r="A1280" t="n">
-        <v>475731</v>
+        <v>343904</v>
       </c>
       <c r="B1280" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG553984</t>
+          <t>00000000000000000</t>
         </is>
       </c>
       <c r="C1280" t="inlineStr">
         <is>
-          <t>9.020.963,93</t>
+          <t>2.566.673,21</t>
         </is>
       </c>
       <c r="D1280" t="inlineStr">
         <is>
-          <t>26/12/2023</t>
+          <t>15/02/2024</t>
         </is>
       </c>
       <c r="E1280" t="inlineStr">
         <is>
-          <t>23/11/2023</t>
+          <t>18/12/2023</t>
         </is>
       </c>
       <c r="F1280" t="inlineStr">
@@ -37412,31 +37412,31 @@
         </is>
       </c>
       <c r="G1280" t="n">
-        <v>1.70202369600486e+17</v>
+        <v>483695</v>
       </c>
     </row>
     <row r="1281">
       <c r="A1281" t="n">
-        <v>475707</v>
+        <v>343905</v>
       </c>
       <c r="B1281" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG551561</t>
+          <t>00000000000000000</t>
         </is>
       </c>
       <c r="C1281" t="inlineStr">
         <is>
-          <t>9.020.963,93</t>
+          <t>2.486.770,88</t>
         </is>
       </c>
       <c r="D1281" t="inlineStr">
         <is>
-          <t>26/12/2023</t>
+          <t>15/02/2024</t>
         </is>
       </c>
       <c r="E1281" t="inlineStr">
         <is>
-          <t>23/11/2023</t>
+          <t>18/12/2023</t>
         </is>
       </c>
       <c r="F1281" t="inlineStr">
@@ -37445,31 +37445,31 @@
         </is>
       </c>
       <c r="G1281" t="n">
-        <v>1.70202379600486e+17</v>
+        <v>483696</v>
       </c>
     </row>
     <row r="1282">
       <c r="A1282" t="n">
-        <v>475706</v>
+        <v>343906</v>
       </c>
       <c r="B1282" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG551906</t>
+          <t>00000000000000000</t>
         </is>
       </c>
       <c r="C1282" t="inlineStr">
         <is>
-          <t>9.020.963,93</t>
+          <t>2.794.950,41</t>
         </is>
       </c>
       <c r="D1282" t="inlineStr">
         <is>
-          <t>26/12/2023</t>
+          <t>15/02/2024</t>
         </is>
       </c>
       <c r="E1282" t="inlineStr">
         <is>
-          <t>23/11/2023</t>
+          <t>18/12/2023</t>
         </is>
       </c>
       <c r="F1282" t="inlineStr">
@@ -37478,31 +37478,31 @@
         </is>
       </c>
       <c r="G1282" t="n">
-        <v>1.70202319600486e+17</v>
+        <v>483697</v>
       </c>
     </row>
     <row r="1283">
       <c r="A1283" t="n">
-        <v>475703</v>
+        <v>343907</v>
       </c>
       <c r="B1283" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG551897</t>
+          <t>00000000000000000</t>
         </is>
       </c>
       <c r="C1283" t="inlineStr">
         <is>
-          <t>9.020.963,93</t>
+          <t>891.211,61</t>
         </is>
       </c>
       <c r="D1283" t="inlineStr">
         <is>
-          <t>26/12/2023</t>
+          <t>15/02/2024</t>
         </is>
       </c>
       <c r="E1283" t="inlineStr">
         <is>
-          <t>23/11/2023</t>
+          <t>18/12/2023</t>
         </is>
       </c>
       <c r="F1283" t="inlineStr">
@@ -37511,16 +37511,16 @@
         </is>
       </c>
       <c r="G1283" t="n">
-        <v>1.70202349600486e+17</v>
+        <v>483698</v>
       </c>
     </row>
     <row r="1284">
       <c r="A1284" t="n">
-        <v>475702</v>
+        <v>475731</v>
       </c>
       <c r="B1284" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG551901</t>
+          <t>8ADUWNFPVRG553984</t>
         </is>
       </c>
       <c r="C1284" t="inlineStr">
@@ -37544,16 +37544,16 @@
         </is>
       </c>
       <c r="G1284" t="n">
-        <v>1.70202389600486e+17</v>
+        <v>1.70202369600486e+17</v>
       </c>
     </row>
     <row r="1285">
       <c r="A1285" t="n">
-        <v>475818</v>
+        <v>475707</v>
       </c>
       <c r="B1285" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG551584</t>
+          <t>8ADUWNFPVRG551561</t>
         </is>
       </c>
       <c r="C1285" t="inlineStr">
@@ -37568,7 +37568,7 @@
       </c>
       <c r="E1285" t="inlineStr">
         <is>
-          <t>24/11/2023</t>
+          <t>23/11/2023</t>
         </is>
       </c>
       <c r="F1285" t="inlineStr">
@@ -37577,16 +37577,16 @@
         </is>
       </c>
       <c r="G1285" t="n">
-        <v>1.70202309600487e+17</v>
+        <v>1.70202379600486e+17</v>
       </c>
     </row>
     <row r="1286">
       <c r="A1286" t="n">
-        <v>475817</v>
+        <v>475706</v>
       </c>
       <c r="B1286" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG544787</t>
+          <t>8ADUWNFPVRG551906</t>
         </is>
       </c>
       <c r="C1286" t="inlineStr">
@@ -37601,7 +37601,7 @@
       </c>
       <c r="E1286" t="inlineStr">
         <is>
-          <t>24/11/2023</t>
+          <t>23/11/2023</t>
         </is>
       </c>
       <c r="F1286" t="inlineStr">
@@ -37610,16 +37610,16 @@
         </is>
       </c>
       <c r="G1286" t="n">
-        <v>1.70202339600487e+17</v>
+        <v>1.70202319600486e+17</v>
       </c>
     </row>
     <row r="1287">
       <c r="A1287" t="n">
-        <v>475816</v>
+        <v>475703</v>
       </c>
       <c r="B1287" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG551236</t>
+          <t>8ADUWNFPVRG551897</t>
         </is>
       </c>
       <c r="C1287" t="inlineStr">
@@ -37634,7 +37634,7 @@
       </c>
       <c r="E1287" t="inlineStr">
         <is>
-          <t>24/11/2023</t>
+          <t>23/11/2023</t>
         </is>
       </c>
       <c r="F1287" t="inlineStr">
@@ -37643,16 +37643,16 @@
         </is>
       </c>
       <c r="G1287" t="n">
-        <v>1.70202369600487e+17</v>
+        <v>1.70202349600486e+17</v>
       </c>
     </row>
     <row r="1288">
       <c r="A1288" t="n">
-        <v>475782</v>
+        <v>475702</v>
       </c>
       <c r="B1288" t="inlineStr">
         <is>
-          <t>8ADUWNFPARG555954</t>
+          <t>8ADUWNFPVRG551901</t>
         </is>
       </c>
       <c r="C1288" t="inlineStr">
@@ -37667,7 +37667,7 @@
       </c>
       <c r="E1288" t="inlineStr">
         <is>
-          <t>24/11/2023</t>
+          <t>23/11/2023</t>
         </is>
       </c>
       <c r="F1288" t="inlineStr">
@@ -37676,16 +37676,16 @@
         </is>
       </c>
       <c r="G1288" t="n">
-        <v>1.70202319600487e+17</v>
+        <v>1.70202389600486e+17</v>
       </c>
     </row>
     <row r="1289">
       <c r="A1289" t="n">
-        <v>475781</v>
+        <v>475818</v>
       </c>
       <c r="B1289" t="inlineStr">
         <is>
-          <t>8ADUWNFPARG554927</t>
+          <t>8ADUWNFPVRG551584</t>
         </is>
       </c>
       <c r="C1289" t="inlineStr">
@@ -37709,31 +37709,31 @@
         </is>
       </c>
       <c r="G1289" t="n">
-        <v>1.70202359600487e+17</v>
+        <v>1.70202309600487e+17</v>
       </c>
     </row>
     <row r="1290">
       <c r="A1290" t="n">
-        <v>476089</v>
+        <v>475817</v>
       </c>
       <c r="B1290" t="inlineStr">
         <is>
-          <t>8AEGCNFPARG556566</t>
+          <t>8ADUWNFPVRG544787</t>
         </is>
       </c>
       <c r="C1290" t="inlineStr">
         <is>
-          <t>10.167.353,83</t>
+          <t>9.020.963,93</t>
         </is>
       </c>
       <c r="D1290" t="inlineStr">
         <is>
-          <t>28/12/2023</t>
+          <t>26/12/2023</t>
         </is>
       </c>
       <c r="E1290" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>24/11/2023</t>
         </is>
       </c>
       <c r="F1290" t="inlineStr">
@@ -37742,31 +37742,31 @@
         </is>
       </c>
       <c r="G1290" t="n">
-        <v>1.70202399600488e+17</v>
+        <v>1.70202339600487e+17</v>
       </c>
     </row>
     <row r="1291">
       <c r="A1291" t="n">
-        <v>476088</v>
+        <v>475816</v>
       </c>
       <c r="B1291" t="inlineStr">
         <is>
-          <t>8AEGCNFPARG556555</t>
+          <t>8ADUWNFPVRG551236</t>
         </is>
       </c>
       <c r="C1291" t="inlineStr">
         <is>
-          <t>10.167.353,83</t>
+          <t>9.020.963,93</t>
         </is>
       </c>
       <c r="D1291" t="inlineStr">
         <is>
-          <t>28/12/2023</t>
+          <t>26/12/2023</t>
         </is>
       </c>
       <c r="E1291" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>24/11/2023</t>
         </is>
       </c>
       <c r="F1291" t="inlineStr">
@@ -37775,31 +37775,31 @@
         </is>
       </c>
       <c r="G1291" t="n">
-        <v>1.70202339600488e+17</v>
+        <v>1.70202369600487e+17</v>
       </c>
     </row>
     <row r="1292">
       <c r="A1292" t="n">
-        <v>476087</v>
+        <v>475782</v>
       </c>
       <c r="B1292" t="inlineStr">
         <is>
-          <t>8AEGCNFPARG557347</t>
+          <t>8ADUWNFPARG555954</t>
         </is>
       </c>
       <c r="C1292" t="inlineStr">
         <is>
-          <t>10.167.353,83</t>
+          <t>9.020.963,93</t>
         </is>
       </c>
       <c r="D1292" t="inlineStr">
         <is>
-          <t>28/12/2023</t>
+          <t>26/12/2023</t>
         </is>
       </c>
       <c r="E1292" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>24/11/2023</t>
         </is>
       </c>
       <c r="F1292" t="inlineStr">
@@ -37808,16 +37808,16 @@
         </is>
       </c>
       <c r="G1292" t="n">
-        <v>1.70202319600488e+17</v>
+        <v>1.70202319600487e+17</v>
       </c>
     </row>
     <row r="1293">
       <c r="A1293" t="n">
-        <v>476086</v>
+        <v>475781</v>
       </c>
       <c r="B1293" t="inlineStr">
         <is>
-          <t>8ADUWNFPARG555669</t>
+          <t>8ADUWNFPARG554927</t>
         </is>
       </c>
       <c r="C1293" t="inlineStr">
@@ -37827,12 +37827,12 @@
       </c>
       <c r="D1293" t="inlineStr">
         <is>
-          <t>28/12/2023</t>
+          <t>26/12/2023</t>
         </is>
       </c>
       <c r="E1293" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>24/11/2023</t>
         </is>
       </c>
       <c r="F1293" t="inlineStr">
@@ -37841,21 +37841,21 @@
         </is>
       </c>
       <c r="G1293" t="n">
-        <v>1.70202349600488e+17</v>
+        <v>1.70202359600487e+17</v>
       </c>
     </row>
     <row r="1294">
       <c r="A1294" t="n">
-        <v>476085</v>
+        <v>476089</v>
       </c>
       <c r="B1294" t="inlineStr">
         <is>
-          <t>8ADUWNFPARG554935</t>
+          <t>8AEGCNFPARG556566</t>
         </is>
       </c>
       <c r="C1294" t="inlineStr">
         <is>
-          <t>9.020.963,93</t>
+          <t>10.167.353,83</t>
         </is>
       </c>
       <c r="D1294" t="inlineStr">
@@ -37874,16 +37874,16 @@
         </is>
       </c>
       <c r="G1294" t="n">
-        <v>1.70202389600488e+17</v>
+        <v>1.70202399600488e+17</v>
       </c>
     </row>
     <row r="1295">
       <c r="A1295" t="n">
-        <v>476004</v>
+        <v>476088</v>
       </c>
       <c r="B1295" t="inlineStr">
         <is>
-          <t>8AEGCNFPARG555299</t>
+          <t>8AEGCNFPARG556555</t>
         </is>
       </c>
       <c r="C1295" t="inlineStr">
@@ -37907,31 +37907,31 @@
         </is>
       </c>
       <c r="G1295" t="n">
-        <v>1.70202379600488e+17</v>
+        <v>1.70202339600488e+17</v>
       </c>
     </row>
     <row r="1296">
       <c r="A1296" t="n">
-        <v>476452</v>
+        <v>476087</v>
       </c>
       <c r="B1296" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG554331</t>
+          <t>8AEGCNFPARG557347</t>
         </is>
       </c>
       <c r="C1296" t="inlineStr">
         <is>
-          <t>9.020.963,93</t>
+          <t>10.167.353,83</t>
         </is>
       </c>
       <c r="D1296" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="E1296" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="F1296" t="inlineStr">
@@ -37940,16 +37940,16 @@
         </is>
       </c>
       <c r="G1296" t="n">
-        <v>1.70202369600489e+17</v>
+        <v>1.70202319600488e+17</v>
       </c>
     </row>
     <row r="1297">
       <c r="A1297" t="n">
-        <v>476451</v>
+        <v>476086</v>
       </c>
       <c r="B1297" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG555579</t>
+          <t>8ADUWNFPARG555669</t>
         </is>
       </c>
       <c r="C1297" t="inlineStr">
@@ -37959,12 +37959,12 @@
       </c>
       <c r="D1297" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="E1297" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="F1297" t="inlineStr">
@@ -37973,16 +37973,16 @@
         </is>
       </c>
       <c r="G1297" t="n">
-        <v>1.70202309600489e+17</v>
+        <v>1.70202349600488e+17</v>
       </c>
     </row>
     <row r="1298">
       <c r="A1298" t="n">
-        <v>476450</v>
+        <v>476085</v>
       </c>
       <c r="B1298" t="inlineStr">
         <is>
-          <t>8ADUWNFPARG555672</t>
+          <t>8ADUWNFPARG554935</t>
         </is>
       </c>
       <c r="C1298" t="inlineStr">
@@ -37992,12 +37992,12 @@
       </c>
       <c r="D1298" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="E1298" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="F1298" t="inlineStr">
@@ -38006,16 +38006,16 @@
         </is>
       </c>
       <c r="G1298" t="n">
-        <v>1.70202339600489e+17</v>
+        <v>1.70202389600488e+17</v>
       </c>
     </row>
     <row r="1299">
       <c r="A1299" t="n">
-        <v>476245</v>
+        <v>476004</v>
       </c>
       <c r="B1299" t="inlineStr">
         <is>
-          <t>8AEGCNFPARG557348</t>
+          <t>8AEGCNFPARG555299</t>
         </is>
       </c>
       <c r="C1299" t="inlineStr">
@@ -38025,12 +38025,12 @@
       </c>
       <c r="D1299" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="E1299" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="F1299" t="inlineStr">
@@ -38039,16 +38039,16 @@
         </is>
       </c>
       <c r="G1299" t="n">
-        <v>1.70202309600489e+17</v>
+        <v>1.70202379600488e+17</v>
       </c>
     </row>
     <row r="1300">
       <c r="A1300" t="n">
-        <v>476244</v>
+        <v>476452</v>
       </c>
       <c r="B1300" t="inlineStr">
         <is>
-          <t>8ADUWNFPARG554907</t>
+          <t>8ADUWNFPVRG554331</t>
         </is>
       </c>
       <c r="C1300" t="inlineStr">
@@ -38072,31 +38072,31 @@
         </is>
       </c>
       <c r="G1300" t="n">
-        <v>1.70202339600489e+17</v>
+        <v>1.70202369600489e+17</v>
       </c>
     </row>
     <row r="1301">
       <c r="A1301" t="n">
-        <v>477050</v>
+        <v>476451</v>
       </c>
       <c r="B1301" t="inlineStr">
         <is>
-          <t>8AEGCNFPAPG577800</t>
+          <t>8ADUWNFPVRG555579</t>
         </is>
       </c>
       <c r="C1301" t="inlineStr">
         <is>
-          <t>10.167.353,83</t>
+          <t>9.020.963,93</t>
         </is>
       </c>
       <c r="D1301" t="inlineStr">
         <is>
-          <t>02/01/2024</t>
+          <t>29/12/2023</t>
         </is>
       </c>
       <c r="E1301" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="F1301" t="inlineStr">
@@ -38105,31 +38105,31 @@
         </is>
       </c>
       <c r="G1301" t="n">
-        <v>1.70202349600489e+17</v>
+        <v>1.70202309600489e+17</v>
       </c>
     </row>
     <row r="1302">
       <c r="A1302" t="n">
-        <v>477049</v>
+        <v>476450</v>
       </c>
       <c r="B1302" t="inlineStr">
         <is>
-          <t>8AEGCNFPARG557966</t>
+          <t>8ADUWNFPARG555672</t>
         </is>
       </c>
       <c r="C1302" t="inlineStr">
         <is>
-          <t>10.167.353,83</t>
+          <t>9.020.963,93</t>
         </is>
       </c>
       <c r="D1302" t="inlineStr">
         <is>
-          <t>02/01/2024</t>
+          <t>29/12/2023</t>
         </is>
       </c>
       <c r="E1302" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="F1302" t="inlineStr">
@@ -38138,16 +38138,16 @@
         </is>
       </c>
       <c r="G1302" t="n">
-        <v>1.70202389600489e+17</v>
+        <v>1.70202339600489e+17</v>
       </c>
     </row>
     <row r="1303">
       <c r="A1303" t="n">
-        <v>477048</v>
+        <v>476245</v>
       </c>
       <c r="B1303" t="inlineStr">
         <is>
-          <t>8AEGCNFPARG558366</t>
+          <t>8AEGCNFPARG557348</t>
         </is>
       </c>
       <c r="C1303" t="inlineStr">
@@ -38157,12 +38157,12 @@
       </c>
       <c r="D1303" t="inlineStr">
         <is>
-          <t>02/01/2024</t>
+          <t>29/12/2023</t>
         </is>
       </c>
       <c r="E1303" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="F1303" t="inlineStr">
@@ -38171,31 +38171,31 @@
         </is>
       </c>
       <c r="G1303" t="n">
-        <v>1.70202319600489e+17</v>
+        <v>1.70202309600489e+17</v>
       </c>
     </row>
     <row r="1304">
       <c r="A1304" t="n">
-        <v>477046</v>
+        <v>476244</v>
       </c>
       <c r="B1304" t="inlineStr">
         <is>
-          <t>8AEGCNFPARG555286</t>
+          <t>8ADUWNFPARG554907</t>
         </is>
       </c>
       <c r="C1304" t="inlineStr">
         <is>
-          <t>10.167.353,83</t>
+          <t>9.020.963,93</t>
         </is>
       </c>
       <c r="D1304" t="inlineStr">
         <is>
-          <t>02/01/2024</t>
+          <t>29/12/2023</t>
         </is>
       </c>
       <c r="E1304" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="F1304" t="inlineStr">
@@ -38204,16 +38204,16 @@
         </is>
       </c>
       <c r="G1304" t="n">
-        <v>1.70202359600489e+17</v>
+        <v>1.70202339600489e+17</v>
       </c>
     </row>
     <row r="1305">
       <c r="A1305" t="n">
-        <v>477043</v>
+        <v>477050</v>
       </c>
       <c r="B1305" t="inlineStr">
         <is>
-          <t>8AEGCNFPARG555296</t>
+          <t>8AEGCNFPAPG577800</t>
         </is>
       </c>
       <c r="C1305" t="inlineStr">
@@ -38237,21 +38237,21 @@
         </is>
       </c>
       <c r="G1305" t="n">
-        <v>1.70202389600489e+17</v>
+        <v>1.70202349600489e+17</v>
       </c>
     </row>
     <row r="1306">
       <c r="A1306" t="n">
-        <v>477018</v>
+        <v>477049</v>
       </c>
       <c r="B1306" t="inlineStr">
         <is>
-          <t>8ADUWNFPARG555657</t>
+          <t>8AEGCNFPARG557966</t>
         </is>
       </c>
       <c r="C1306" t="inlineStr">
         <is>
-          <t>9.020.963,93</t>
+          <t>10.167.353,83</t>
         </is>
       </c>
       <c r="D1306" t="inlineStr">
@@ -38270,21 +38270,21 @@
         </is>
       </c>
       <c r="G1306" t="n">
-        <v>1.7020234960049e+17</v>
+        <v>1.70202389600489e+17</v>
       </c>
     </row>
     <row r="1307">
       <c r="A1307" t="n">
-        <v>477007</v>
+        <v>477048</v>
       </c>
       <c r="B1307" t="inlineStr">
         <is>
-          <t>8ADUWNFPARG552977</t>
+          <t>8AEGCNFPARG558366</t>
         </is>
       </c>
       <c r="C1307" t="inlineStr">
         <is>
-          <t>9.020.963,93</t>
+          <t>10.167.353,83</t>
         </is>
       </c>
       <c r="D1307" t="inlineStr">
@@ -38303,21 +38303,21 @@
         </is>
       </c>
       <c r="G1307" t="n">
-        <v>1.7020237960049e+17</v>
+        <v>1.70202319600489e+17</v>
       </c>
     </row>
     <row r="1308">
       <c r="A1308" t="n">
-        <v>477005</v>
+        <v>477046</v>
       </c>
       <c r="B1308" t="inlineStr">
         <is>
-          <t>8ADUWNFPARG556362</t>
+          <t>8AEGCNFPARG555286</t>
         </is>
       </c>
       <c r="C1308" t="inlineStr">
         <is>
-          <t>9.020.963,93</t>
+          <t>10.167.353,83</t>
         </is>
       </c>
       <c r="D1308" t="inlineStr">
@@ -38336,21 +38336,21 @@
         </is>
       </c>
       <c r="G1308" t="n">
-        <v>1.7020234960049e+17</v>
+        <v>1.70202359600489e+17</v>
       </c>
     </row>
     <row r="1309">
       <c r="A1309" t="n">
-        <v>477002</v>
+        <v>477043</v>
       </c>
       <c r="B1309" t="inlineStr">
         <is>
-          <t>8ADUWNFPARG553312</t>
+          <t>8AEGCNFPARG555296</t>
         </is>
       </c>
       <c r="C1309" t="inlineStr">
         <is>
-          <t>9.020.963,93</t>
+          <t>10.167.353,83</t>
         </is>
       </c>
       <c r="D1309" t="inlineStr">
@@ -38369,16 +38369,16 @@
         </is>
       </c>
       <c r="G1309" t="n">
-        <v>1.7020239960049e+17</v>
+        <v>1.70202389600489e+17</v>
       </c>
     </row>
     <row r="1310">
       <c r="A1310" t="n">
-        <v>477001</v>
+        <v>477018</v>
       </c>
       <c r="B1310" t="inlineStr">
         <is>
-          <t>8ADUWNFPARG552318</t>
+          <t>8ADUWNFPARG555657</t>
         </is>
       </c>
       <c r="C1310" t="inlineStr">
@@ -38402,16 +38402,16 @@
         </is>
       </c>
       <c r="G1310" t="n">
-        <v>1.7020238960049e+17</v>
+        <v>1.7020234960049e+17</v>
       </c>
     </row>
     <row r="1311">
       <c r="A1311" t="n">
-        <v>476957</v>
+        <v>477007</v>
       </c>
       <c r="B1311" t="inlineStr">
         <is>
-          <t>8ADUWNFPARG552806</t>
+          <t>8ADUWNFPARG552977</t>
         </is>
       </c>
       <c r="C1311" t="inlineStr">
@@ -38435,16 +38435,16 @@
         </is>
       </c>
       <c r="G1311" t="n">
-        <v>1.7020232960049e+17</v>
+        <v>1.7020237960049e+17</v>
       </c>
     </row>
     <row r="1312">
       <c r="A1312" t="n">
-        <v>476864</v>
+        <v>477005</v>
       </c>
       <c r="B1312" t="inlineStr">
         <is>
-          <t>8ADUWNFPARG553318</t>
+          <t>8ADUWNFPARG556362</t>
         </is>
       </c>
       <c r="C1312" t="inlineStr">
@@ -38468,16 +38468,16 @@
         </is>
       </c>
       <c r="G1312" t="n">
-        <v>1.7020235960049e+17</v>
+        <v>1.7020234960049e+17</v>
       </c>
     </row>
     <row r="1313">
       <c r="A1313" t="n">
-        <v>476854</v>
+        <v>477002</v>
       </c>
       <c r="B1313" t="inlineStr">
         <is>
-          <t>8ADUWNFPARG556371</t>
+          <t>8ADUWNFPARG553312</t>
         </is>
       </c>
       <c r="C1313" t="inlineStr">
@@ -38501,16 +38501,16 @@
         </is>
       </c>
       <c r="G1313" t="n">
-        <v>1.7020232960049e+17</v>
+        <v>1.7020239960049e+17</v>
       </c>
     </row>
     <row r="1314">
       <c r="A1314" t="n">
-        <v>476845</v>
+        <v>477001</v>
       </c>
       <c r="B1314" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG553303</t>
+          <t>8ADUWNFPARG552318</t>
         </is>
       </c>
       <c r="C1314" t="inlineStr">
@@ -38534,16 +38534,16 @@
         </is>
       </c>
       <c r="G1314" t="n">
-        <v>1.7020235960049e+17</v>
+        <v>1.7020238960049e+17</v>
       </c>
     </row>
     <row r="1315">
       <c r="A1315" t="n">
-        <v>476834</v>
+        <v>476957</v>
       </c>
       <c r="B1315" t="inlineStr">
         <is>
-          <t>8ADUWNFPARG556372</t>
+          <t>8ADUWNFPARG552806</t>
         </is>
       </c>
       <c r="C1315" t="inlineStr">
@@ -38567,16 +38567,16 @@
         </is>
       </c>
       <c r="G1315" t="n">
-        <v>1.7020237960049e+17</v>
+        <v>1.7020232960049e+17</v>
       </c>
     </row>
     <row r="1316">
       <c r="A1316" t="n">
-        <v>476796</v>
+        <v>476864</v>
       </c>
       <c r="B1316" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG556712</t>
+          <t>8ADUWNFPARG553318</t>
         </is>
       </c>
       <c r="C1316" t="inlineStr">
@@ -38600,16 +38600,16 @@
         </is>
       </c>
       <c r="G1316" t="n">
-        <v>1.7020230960049e+17</v>
+        <v>1.7020235960049e+17</v>
       </c>
     </row>
     <row r="1317">
       <c r="A1317" t="n">
-        <v>476787</v>
+        <v>476854</v>
       </c>
       <c r="B1317" t="inlineStr">
         <is>
-          <t>8ADUWNFPARG556350</t>
+          <t>8ADUWNFPARG556371</t>
         </is>
       </c>
       <c r="C1317" t="inlineStr">
@@ -38633,16 +38633,16 @@
         </is>
       </c>
       <c r="G1317" t="n">
-        <v>1.7020236960049e+17</v>
+        <v>1.7020232960049e+17</v>
       </c>
     </row>
     <row r="1318">
       <c r="A1318" t="n">
-        <v>476742</v>
+        <v>476845</v>
       </c>
       <c r="B1318" t="inlineStr">
         <is>
-          <t>8ADUWNFPARG554889</t>
+          <t>8ADUWNFPVRG553303</t>
         </is>
       </c>
       <c r="C1318" t="inlineStr">
@@ -38666,16 +38666,16 @@
         </is>
       </c>
       <c r="G1318" t="n">
-        <v>1.7020230960049e+17</v>
+        <v>1.7020235960049e+17</v>
       </c>
     </row>
     <row r="1319">
       <c r="A1319" t="n">
-        <v>476741</v>
+        <v>476834</v>
       </c>
       <c r="B1319" t="inlineStr">
         <is>
-          <t>8ADUWNFPARG554874</t>
+          <t>8ADUWNFPARG556372</t>
         </is>
       </c>
       <c r="C1319" t="inlineStr">
@@ -38699,16 +38699,16 @@
         </is>
       </c>
       <c r="G1319" t="n">
-        <v>1.7020233960049e+17</v>
+        <v>1.7020237960049e+17</v>
       </c>
     </row>
     <row r="1320">
       <c r="A1320" t="n">
-        <v>476738</v>
+        <v>476796</v>
       </c>
       <c r="B1320" t="inlineStr">
         <is>
-          <t>8ADUWNFPARG556478</t>
+          <t>8ADUWNFPVRG556712</t>
         </is>
       </c>
       <c r="C1320" t="inlineStr">
@@ -38732,16 +38732,16 @@
         </is>
       </c>
       <c r="G1320" t="n">
-        <v>1.7020232960049e+17</v>
+        <v>1.7020230960049e+17</v>
       </c>
     </row>
     <row r="1321">
       <c r="A1321" t="n">
-        <v>476737</v>
+        <v>476787</v>
       </c>
       <c r="B1321" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG554316</t>
+          <t>8ADUWNFPARG556350</t>
         </is>
       </c>
       <c r="C1321" t="inlineStr">
@@ -38770,11 +38770,11 @@
     </row>
     <row r="1322">
       <c r="A1322" t="n">
-        <v>476568</v>
+        <v>476742</v>
       </c>
       <c r="B1322" t="inlineStr">
         <is>
-          <t>8ADUWNFPARG556486</t>
+          <t>8ADUWNFPARG554889</t>
         </is>
       </c>
       <c r="C1322" t="inlineStr">
@@ -38798,16 +38798,16 @@
         </is>
       </c>
       <c r="G1322" t="n">
-        <v>1.7020234960049e+17</v>
+        <v>1.7020230960049e+17</v>
       </c>
     </row>
     <row r="1323">
       <c r="A1323" t="n">
-        <v>476567</v>
+        <v>476741</v>
       </c>
       <c r="B1323" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG555637</t>
+          <t>8ADUWNFPARG554874</t>
         </is>
       </c>
       <c r="C1323" t="inlineStr">
@@ -38831,16 +38831,16 @@
         </is>
       </c>
       <c r="G1323" t="n">
-        <v>1.7020232960049e+17</v>
+        <v>1.7020233960049e+17</v>
       </c>
     </row>
     <row r="1324">
       <c r="A1324" t="n">
-        <v>476566</v>
+        <v>476738</v>
       </c>
       <c r="B1324" t="inlineStr">
         <is>
-          <t>8ADUWNFPARG555681</t>
+          <t>8ADUWNFPARG556478</t>
         </is>
       </c>
       <c r="C1324" t="inlineStr">
@@ -38864,31 +38864,31 @@
         </is>
       </c>
       <c r="G1324" t="n">
-        <v>1.7020235960049e+17</v>
+        <v>1.7020232960049e+17</v>
       </c>
     </row>
     <row r="1325">
       <c r="A1325" t="n">
-        <v>477208</v>
+        <v>476737</v>
       </c>
       <c r="B1325" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG558746</t>
+          <t>8ADUWNFPVRG554316</t>
         </is>
       </c>
       <c r="C1325" t="inlineStr">
         <is>
-          <t>12.703.057,02</t>
+          <t>9.020.963,93</t>
         </is>
       </c>
       <c r="D1325" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>02/01/2024</t>
         </is>
       </c>
       <c r="E1325" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="F1325" t="inlineStr">
@@ -38897,31 +38897,31 @@
         </is>
       </c>
       <c r="G1325" t="n">
-        <v>1.70202389600493e+17</v>
+        <v>1.7020236960049e+17</v>
       </c>
     </row>
     <row r="1326">
       <c r="A1326" t="n">
-        <v>477207</v>
+        <v>476568</v>
       </c>
       <c r="B1326" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG557846</t>
+          <t>8ADUWNFPARG556486</t>
         </is>
       </c>
       <c r="C1326" t="inlineStr">
         <is>
-          <t>12.703.057,02</t>
+          <t>9.020.963,93</t>
         </is>
       </c>
       <c r="D1326" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>02/01/2024</t>
         </is>
       </c>
       <c r="E1326" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="F1326" t="inlineStr">
@@ -38930,31 +38930,31 @@
         </is>
       </c>
       <c r="G1326" t="n">
-        <v>1.70202319600493e+17</v>
+        <v>1.7020234960049e+17</v>
       </c>
     </row>
     <row r="1327">
       <c r="A1327" t="n">
-        <v>477206</v>
+        <v>476567</v>
       </c>
       <c r="B1327" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG558307</t>
+          <t>8ADUWNFPVRG555637</t>
         </is>
       </c>
       <c r="C1327" t="inlineStr">
         <is>
-          <t>12.703.057,02</t>
+          <t>9.020.963,93</t>
         </is>
       </c>
       <c r="D1327" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>02/01/2024</t>
         </is>
       </c>
       <c r="E1327" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="F1327" t="inlineStr">
@@ -38963,31 +38963,31 @@
         </is>
       </c>
       <c r="G1327" t="n">
-        <v>1.70202319600493e+17</v>
+        <v>1.7020232960049e+17</v>
       </c>
     </row>
     <row r="1328">
       <c r="A1328" t="n">
-        <v>477205</v>
+        <v>476566</v>
       </c>
       <c r="B1328" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG558739</t>
+          <t>8ADUWNFPARG555681</t>
         </is>
       </c>
       <c r="C1328" t="inlineStr">
         <is>
-          <t>12.703.057,02</t>
+          <t>9.020.963,93</t>
         </is>
       </c>
       <c r="D1328" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>02/01/2024</t>
         </is>
       </c>
       <c r="E1328" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="F1328" t="inlineStr">
@@ -38996,16 +38996,16 @@
         </is>
       </c>
       <c r="G1328" t="n">
-        <v>1.70202349600493e+17</v>
+        <v>1.7020235960049e+17</v>
       </c>
     </row>
     <row r="1329">
       <c r="A1329" t="n">
-        <v>477204</v>
+        <v>477208</v>
       </c>
       <c r="B1329" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG559118</t>
+          <t>8ADUWNFPVRG558746</t>
         </is>
       </c>
       <c r="C1329" t="inlineStr">
@@ -39029,16 +39029,16 @@
         </is>
       </c>
       <c r="G1329" t="n">
-        <v>1.70202379600493e+17</v>
+        <v>1.70202389600493e+17</v>
       </c>
     </row>
     <row r="1330">
       <c r="A1330" t="n">
-        <v>477203</v>
+        <v>477207</v>
       </c>
       <c r="B1330" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG556839</t>
+          <t>8ADUWNFPVRG557846</t>
         </is>
       </c>
       <c r="C1330" t="inlineStr">
@@ -39067,11 +39067,11 @@
     </row>
     <row r="1331">
       <c r="A1331" t="n">
-        <v>477202</v>
+        <v>477206</v>
       </c>
       <c r="B1331" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG558276</t>
+          <t>8ADUWNFPVRG558307</t>
         </is>
       </c>
       <c r="C1331" t="inlineStr">
@@ -39095,16 +39095,16 @@
         </is>
       </c>
       <c r="G1331" t="n">
-        <v>1.70202349600493e+17</v>
+        <v>1.70202319600493e+17</v>
       </c>
     </row>
     <row r="1332">
       <c r="A1332" t="n">
-        <v>477201</v>
+        <v>477205</v>
       </c>
       <c r="B1332" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG558257</t>
+          <t>8ADUWNFPVRG558739</t>
         </is>
       </c>
       <c r="C1332" t="inlineStr">
@@ -39128,16 +39128,16 @@
         </is>
       </c>
       <c r="G1332" t="n">
-        <v>1.70202339600493e+17</v>
+        <v>1.70202349600493e+17</v>
       </c>
     </row>
     <row r="1333">
       <c r="A1333" t="n">
-        <v>477200</v>
+        <v>477204</v>
       </c>
       <c r="B1333" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG558288</t>
+          <t>8ADUWNFPVRG559118</t>
         </is>
       </c>
       <c r="C1333" t="inlineStr">
@@ -39161,21 +39161,21 @@
         </is>
       </c>
       <c r="G1333" t="n">
-        <v>1.70202359600493e+17</v>
+        <v>1.70202379600493e+17</v>
       </c>
     </row>
     <row r="1334">
       <c r="A1334" t="n">
-        <v>477199</v>
+        <v>477203</v>
       </c>
       <c r="B1334" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG557540</t>
+          <t>8ADUWNFPVRG556839</t>
         </is>
       </c>
       <c r="C1334" t="inlineStr">
         <is>
-          <t>12.075.932,66</t>
+          <t>12.703.057,02</t>
         </is>
       </c>
       <c r="D1334" t="inlineStr">
@@ -39194,21 +39194,21 @@
         </is>
       </c>
       <c r="G1334" t="n">
-        <v>1.70202389600493e+17</v>
+        <v>1.70202319600493e+17</v>
       </c>
     </row>
     <row r="1335">
       <c r="A1335" t="n">
-        <v>477198</v>
+        <v>477202</v>
       </c>
       <c r="B1335" t="inlineStr">
         <is>
-          <t>8AEGCNFPARG559582</t>
+          <t>8ADUWNFPVRG558276</t>
         </is>
       </c>
       <c r="C1335" t="inlineStr">
         <is>
-          <t>11.077.339,12</t>
+          <t>12.703.057,02</t>
         </is>
       </c>
       <c r="D1335" t="inlineStr">
@@ -39227,16 +39227,16 @@
         </is>
       </c>
       <c r="G1335" t="n">
-        <v>1.70202379600493e+17</v>
+        <v>1.70202349600493e+17</v>
       </c>
     </row>
     <row r="1336">
       <c r="A1336" t="n">
-        <v>477197</v>
+        <v>477201</v>
       </c>
       <c r="B1336" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG557836</t>
+          <t>8ADUWNFPVRG558257</t>
         </is>
       </c>
       <c r="C1336" t="inlineStr">
@@ -39260,16 +39260,16 @@
         </is>
       </c>
       <c r="G1336" t="n">
-        <v>1.70202319600493e+17</v>
+        <v>1.70202339600493e+17</v>
       </c>
     </row>
     <row r="1337">
       <c r="A1337" t="n">
-        <v>477196</v>
+        <v>477200</v>
       </c>
       <c r="B1337" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG559152</t>
+          <t>8ADUWNFPVRG558288</t>
         </is>
       </c>
       <c r="C1337" t="inlineStr">
@@ -39293,16 +39293,16 @@
         </is>
       </c>
       <c r="G1337" t="n">
-        <v>1.70202349600493e+17</v>
+        <v>1.70202359600493e+17</v>
       </c>
     </row>
     <row r="1338">
       <c r="A1338" t="n">
-        <v>477195</v>
+        <v>477199</v>
       </c>
       <c r="B1338" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG557515</t>
+          <t>8ADUWNFPVRG557540</t>
         </is>
       </c>
       <c r="C1338" t="inlineStr">
@@ -39331,16 +39331,16 @@
     </row>
     <row r="1339">
       <c r="A1339" t="n">
-        <v>477194</v>
+        <v>477198</v>
       </c>
       <c r="B1339" t="inlineStr">
         <is>
-          <t>8ADUWNFPARG557640</t>
+          <t>8AEGCNFPARG559582</t>
         </is>
       </c>
       <c r="C1339" t="inlineStr">
         <is>
-          <t>11.807.177,74</t>
+          <t>11.077.339,12</t>
         </is>
       </c>
       <c r="D1339" t="inlineStr">
@@ -39359,16 +39359,16 @@
         </is>
       </c>
       <c r="G1339" t="n">
-        <v>1.70202319600493e+17</v>
+        <v>1.70202379600493e+17</v>
       </c>
     </row>
     <row r="1340">
       <c r="A1340" t="n">
-        <v>477193</v>
+        <v>477197</v>
       </c>
       <c r="B1340" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG557841</t>
+          <t>8ADUWNFPVRG557836</t>
         </is>
       </c>
       <c r="C1340" t="inlineStr">
@@ -39392,16 +39392,16 @@
         </is>
       </c>
       <c r="G1340" t="n">
-        <v>1.70202349600493e+17</v>
+        <v>1.70202319600493e+17</v>
       </c>
     </row>
     <row r="1341">
       <c r="A1341" t="n">
-        <v>477192</v>
+        <v>477196</v>
       </c>
       <c r="B1341" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG556835</t>
+          <t>8ADUWNFPVRG559152</t>
         </is>
       </c>
       <c r="C1341" t="inlineStr">
@@ -39430,16 +39430,16 @@
     </row>
     <row r="1342">
       <c r="A1342" t="n">
-        <v>477191</v>
+        <v>477195</v>
       </c>
       <c r="B1342" t="inlineStr">
         <is>
-          <t>8ADUWNFPARG557139</t>
+          <t>8ADUWNFPVRG557515</t>
         </is>
       </c>
       <c r="C1342" t="inlineStr">
         <is>
-          <t>11.807.177,74</t>
+          <t>12.075.932,66</t>
         </is>
       </c>
       <c r="D1342" t="inlineStr">
@@ -39458,16 +39458,16 @@
         </is>
       </c>
       <c r="G1342" t="n">
-        <v>1.70202379600493e+17</v>
+        <v>1.70202389600493e+17</v>
       </c>
     </row>
     <row r="1343">
       <c r="A1343" t="n">
-        <v>477190</v>
+        <v>477194</v>
       </c>
       <c r="B1343" t="inlineStr">
         <is>
-          <t>8ADUWNFPARG557152</t>
+          <t>8ADUWNFPARG557640</t>
         </is>
       </c>
       <c r="C1343" t="inlineStr">
@@ -39491,21 +39491,21 @@
         </is>
       </c>
       <c r="G1343" t="n">
-        <v>1.70202399600493e+17</v>
+        <v>1.70202319600493e+17</v>
       </c>
     </row>
     <row r="1344">
       <c r="A1344" t="n">
-        <v>477189</v>
+        <v>477193</v>
       </c>
       <c r="B1344" t="inlineStr">
         <is>
-          <t>8ADUWNFPARG557142</t>
+          <t>8ADUWNFPVRG557841</t>
         </is>
       </c>
       <c r="C1344" t="inlineStr">
         <is>
-          <t>11.807.177,74</t>
+          <t>12.703.057,02</t>
         </is>
       </c>
       <c r="D1344" t="inlineStr">
@@ -39524,21 +39524,21 @@
         </is>
       </c>
       <c r="G1344" t="n">
-        <v>1.70202399600493e+17</v>
+        <v>1.70202349600493e+17</v>
       </c>
     </row>
     <row r="1345">
       <c r="A1345" t="n">
-        <v>477188</v>
+        <v>477192</v>
       </c>
       <c r="B1345" t="inlineStr">
         <is>
-          <t>8AEGCNFPARG558791</t>
+          <t>8ADUWNFPVRG556835</t>
         </is>
       </c>
       <c r="C1345" t="inlineStr">
         <is>
-          <t>11.077.339,12</t>
+          <t>12.703.057,02</t>
         </is>
       </c>
       <c r="D1345" t="inlineStr">
@@ -39557,31 +39557,31 @@
         </is>
       </c>
       <c r="G1345" t="n">
-        <v>1.70202329600493e+17</v>
+        <v>1.70202349600493e+17</v>
       </c>
     </row>
     <row r="1346">
       <c r="A1346" t="n">
-        <v>477711</v>
+        <v>477191</v>
       </c>
       <c r="B1346" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG559506</t>
+          <t>8ADUWNFPARG557139</t>
         </is>
       </c>
       <c r="C1346" t="inlineStr">
         <is>
-          <t>12.703.057,02</t>
+          <t>11.807.177,74</t>
         </is>
       </c>
       <c r="D1346" t="inlineStr">
         <is>
-          <t>11/01/2024</t>
+          <t>10/01/2024</t>
         </is>
       </c>
       <c r="E1346" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="F1346" t="inlineStr">
@@ -39590,31 +39590,31 @@
         </is>
       </c>
       <c r="G1346" t="n">
-        <v>1.70202319600494e+17</v>
+        <v>1.70202379600493e+17</v>
       </c>
     </row>
     <row r="1347">
       <c r="A1347" t="n">
-        <v>477710</v>
+        <v>477190</v>
       </c>
       <c r="B1347" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG559526</t>
+          <t>8ADUWNFPARG557152</t>
         </is>
       </c>
       <c r="C1347" t="inlineStr">
         <is>
-          <t>12.703.057,02</t>
+          <t>11.807.177,74</t>
         </is>
       </c>
       <c r="D1347" t="inlineStr">
         <is>
-          <t>11/01/2024</t>
+          <t>10/01/2024</t>
         </is>
       </c>
       <c r="E1347" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="F1347" t="inlineStr">
@@ -39623,31 +39623,31 @@
         </is>
       </c>
       <c r="G1347" t="n">
-        <v>1.70202359600494e+17</v>
+        <v>1.70202399600493e+17</v>
       </c>
     </row>
     <row r="1348">
       <c r="A1348" t="n">
-        <v>477709</v>
+        <v>477189</v>
       </c>
       <c r="B1348" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG559523</t>
+          <t>8ADUWNFPARG557142</t>
         </is>
       </c>
       <c r="C1348" t="inlineStr">
         <is>
-          <t>12.703.057,02</t>
+          <t>11.807.177,74</t>
         </is>
       </c>
       <c r="D1348" t="inlineStr">
         <is>
-          <t>11/01/2024</t>
+          <t>10/01/2024</t>
         </is>
       </c>
       <c r="E1348" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="F1348" t="inlineStr">
@@ -39656,31 +39656,31 @@
         </is>
       </c>
       <c r="G1348" t="n">
-        <v>1.70202389600494e+17</v>
+        <v>1.70202399600493e+17</v>
       </c>
     </row>
     <row r="1349">
       <c r="A1349" t="n">
-        <v>477708</v>
+        <v>477188</v>
       </c>
       <c r="B1349" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG558741</t>
+          <t>8AEGCNFPARG558791</t>
         </is>
       </c>
       <c r="C1349" t="inlineStr">
         <is>
-          <t>12.703.057,02</t>
+          <t>11.077.339,12</t>
         </is>
       </c>
       <c r="D1349" t="inlineStr">
         <is>
-          <t>11/01/2024</t>
+          <t>10/01/2024</t>
         </is>
       </c>
       <c r="E1349" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="F1349" t="inlineStr">
@@ -39689,21 +39689,21 @@
         </is>
       </c>
       <c r="G1349" t="n">
-        <v>1.70202329600494e+17</v>
+        <v>1.70202329600493e+17</v>
       </c>
     </row>
     <row r="1350">
       <c r="A1350" t="n">
-        <v>477967</v>
+        <v>477711</v>
       </c>
       <c r="B1350" t="inlineStr">
         <is>
-          <t>8AEGCNFPARG559195</t>
+          <t>8ADUWNFPVRG559506</t>
         </is>
       </c>
       <c r="C1350" t="inlineStr">
         <is>
-          <t>11.077.339,12</t>
+          <t>12.703.057,02</t>
         </is>
       </c>
       <c r="D1350" t="inlineStr">
@@ -39722,31 +39722,31 @@
         </is>
       </c>
       <c r="G1350" t="n">
-        <v>1.70202399600494e+17</v>
+        <v>1.70202319600494e+17</v>
       </c>
     </row>
     <row r="1351">
       <c r="A1351" t="n">
-        <v>477966</v>
+        <v>477710</v>
       </c>
       <c r="B1351" t="inlineStr">
         <is>
-          <t>8AEGCNFPARG560023</t>
+          <t>8ADUWNFPVRG559526</t>
         </is>
       </c>
       <c r="C1351" t="inlineStr">
         <is>
-          <t>11.077.339,12</t>
+          <t>12.703.057,02</t>
         </is>
       </c>
       <c r="D1351" t="inlineStr">
         <is>
-          <t>12/01/2024</t>
+          <t>11/01/2024</t>
         </is>
       </c>
       <c r="E1351" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="F1351" t="inlineStr">
@@ -39755,31 +39755,31 @@
         </is>
       </c>
       <c r="G1351" t="n">
-        <v>1.70202379600495e+17</v>
+        <v>1.70202359600494e+17</v>
       </c>
     </row>
     <row r="1352">
       <c r="A1352" t="n">
-        <v>477965</v>
+        <v>477709</v>
       </c>
       <c r="B1352" t="inlineStr">
         <is>
-          <t>8AEGCNFPARG560370</t>
+          <t>8ADUWNFPVRG559523</t>
         </is>
       </c>
       <c r="C1352" t="inlineStr">
         <is>
-          <t>11.077.339,12</t>
+          <t>12.703.057,02</t>
         </is>
       </c>
       <c r="D1352" t="inlineStr">
         <is>
-          <t>12/01/2024</t>
+          <t>11/01/2024</t>
         </is>
       </c>
       <c r="E1352" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="F1352" t="inlineStr">
@@ -39788,16 +39788,16 @@
         </is>
       </c>
       <c r="G1352" t="n">
-        <v>1.70202369600495e+17</v>
+        <v>1.70202389600494e+17</v>
       </c>
     </row>
     <row r="1353">
       <c r="A1353" t="n">
-        <v>477964</v>
+        <v>477708</v>
       </c>
       <c r="B1353" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG556843</t>
+          <t>8ADUWNFPVRG558741</t>
         </is>
       </c>
       <c r="C1353" t="inlineStr">
@@ -39807,12 +39807,12 @@
       </c>
       <c r="D1353" t="inlineStr">
         <is>
-          <t>12/01/2024</t>
+          <t>11/01/2024</t>
         </is>
       </c>
       <c r="E1353" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="F1353" t="inlineStr">
@@ -39821,31 +39821,31 @@
         </is>
       </c>
       <c r="G1353" t="n">
-        <v>1.70202309600495e+17</v>
+        <v>1.70202329600494e+17</v>
       </c>
     </row>
     <row r="1354">
       <c r="A1354" t="n">
-        <v>477963</v>
+        <v>477967</v>
       </c>
       <c r="B1354" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG560336</t>
+          <t>8AEGCNFPARG559195</t>
         </is>
       </c>
       <c r="C1354" t="inlineStr">
         <is>
-          <t>12.703.057,02</t>
+          <t>11.077.339,12</t>
         </is>
       </c>
       <c r="D1354" t="inlineStr">
         <is>
-          <t>12/01/2024</t>
+          <t>11/01/2024</t>
         </is>
       </c>
       <c r="E1354" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="F1354" t="inlineStr">
@@ -39854,21 +39854,21 @@
         </is>
       </c>
       <c r="G1354" t="n">
-        <v>1.70202329600495e+17</v>
+        <v>1.70202399600494e+17</v>
       </c>
     </row>
     <row r="1355">
       <c r="A1355" t="n">
-        <v>477962</v>
+        <v>477966</v>
       </c>
       <c r="B1355" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG558239</t>
+          <t>8AEGCNFPARG560023</t>
         </is>
       </c>
       <c r="C1355" t="inlineStr">
         <is>
-          <t>12.703.057,02</t>
+          <t>11.077.339,12</t>
         </is>
       </c>
       <c r="D1355" t="inlineStr">
@@ -39887,21 +39887,21 @@
         </is>
       </c>
       <c r="G1355" t="n">
-        <v>1.70202319600495e+17</v>
+        <v>1.70202379600495e+17</v>
       </c>
     </row>
     <row r="1356">
       <c r="A1356" t="n">
-        <v>477961</v>
+        <v>477965</v>
       </c>
       <c r="B1356" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG557228</t>
+          <t>8AEGCNFPARG560370</t>
         </is>
       </c>
       <c r="C1356" t="inlineStr">
         <is>
-          <t>12.703.057,02</t>
+          <t>11.077.339,12</t>
         </is>
       </c>
       <c r="D1356" t="inlineStr">
@@ -39920,16 +39920,16 @@
         </is>
       </c>
       <c r="G1356" t="n">
-        <v>1.70202359600495e+17</v>
+        <v>1.70202369600495e+17</v>
       </c>
     </row>
     <row r="1357">
       <c r="A1357" t="n">
-        <v>477960</v>
+        <v>477964</v>
       </c>
       <c r="B1357" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG558275</t>
+          <t>8ADUWNFPVRG556843</t>
         </is>
       </c>
       <c r="C1357" t="inlineStr">
@@ -39953,16 +39953,16 @@
         </is>
       </c>
       <c r="G1357" t="n">
-        <v>1.70202389600495e+17</v>
+        <v>1.70202309600495e+17</v>
       </c>
     </row>
     <row r="1358">
       <c r="A1358" t="n">
-        <v>477959</v>
+        <v>477963</v>
       </c>
       <c r="B1358" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG556859</t>
+          <t>8ADUWNFPVRG560336</t>
         </is>
       </c>
       <c r="C1358" t="inlineStr">
@@ -39991,11 +39991,11 @@
     </row>
     <row r="1359">
       <c r="A1359" t="n">
-        <v>477958</v>
+        <v>477962</v>
       </c>
       <c r="B1359" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG556876</t>
+          <t>8ADUWNFPVRG558239</t>
         </is>
       </c>
       <c r="C1359" t="inlineStr">
@@ -40019,16 +40019,16 @@
         </is>
       </c>
       <c r="G1359" t="n">
-        <v>1.70202359600495e+17</v>
+        <v>1.70202319600495e+17</v>
       </c>
     </row>
     <row r="1360">
       <c r="A1360" t="n">
-        <v>477957</v>
+        <v>477961</v>
       </c>
       <c r="B1360" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG557779</t>
+          <t>8ADUWNFPVRG557228</t>
         </is>
       </c>
       <c r="C1360" t="inlineStr">
@@ -40052,21 +40052,21 @@
         </is>
       </c>
       <c r="G1360" t="n">
-        <v>1.70202389600495e+17</v>
+        <v>1.70202359600495e+17</v>
       </c>
     </row>
     <row r="1361">
       <c r="A1361" t="n">
-        <v>477956</v>
+        <v>477960</v>
       </c>
       <c r="B1361" t="inlineStr">
         <is>
-          <t>8ADUWNFPARG557298</t>
+          <t>8ADUWNFPVRG558275</t>
         </is>
       </c>
       <c r="C1361" t="inlineStr">
         <is>
-          <t>12.344.687,56</t>
+          <t>12.703.057,02</t>
         </is>
       </c>
       <c r="D1361" t="inlineStr">
@@ -40090,16 +40090,16 @@
     </row>
     <row r="1362">
       <c r="A1362" t="n">
-        <v>477955</v>
+        <v>477959</v>
       </c>
       <c r="B1362" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG556727</t>
+          <t>8ADUWNFPVRG556859</t>
         </is>
       </c>
       <c r="C1362" t="inlineStr">
         <is>
-          <t>12.075.932,66</t>
+          <t>12.703.057,02</t>
         </is>
       </c>
       <c r="D1362" t="inlineStr">
@@ -40118,21 +40118,21 @@
         </is>
       </c>
       <c r="G1362" t="n">
-        <v>1.70202319600495e+17</v>
+        <v>1.70202329600495e+17</v>
       </c>
     </row>
     <row r="1363">
       <c r="A1363" t="n">
-        <v>477954</v>
+        <v>477958</v>
       </c>
       <c r="B1363" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG556731</t>
+          <t>8ADUWNFPVRG556876</t>
         </is>
       </c>
       <c r="C1363" t="inlineStr">
         <is>
-          <t>12.075.932,66</t>
+          <t>12.703.057,02</t>
         </is>
       </c>
       <c r="D1363" t="inlineStr">
@@ -40151,21 +40151,21 @@
         </is>
       </c>
       <c r="G1363" t="n">
-        <v>1.70202349600495e+17</v>
+        <v>1.70202359600495e+17</v>
       </c>
     </row>
     <row r="1364">
       <c r="A1364" t="n">
-        <v>477953</v>
+        <v>477957</v>
       </c>
       <c r="B1364" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG558137</t>
+          <t>8ADUWNFPVRG557779</t>
         </is>
       </c>
       <c r="C1364" t="inlineStr">
         <is>
-          <t>12.075.932,66</t>
+          <t>12.703.057,02</t>
         </is>
       </c>
       <c r="D1364" t="inlineStr">
@@ -40184,21 +40184,21 @@
         </is>
       </c>
       <c r="G1364" t="n">
-        <v>1.70202339600495e+17</v>
+        <v>1.70202389600495e+17</v>
       </c>
     </row>
     <row r="1365">
       <c r="A1365" t="n">
-        <v>477950</v>
+        <v>477956</v>
       </c>
       <c r="B1365" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG553733</t>
+          <t>8ADUWNFPARG557298</t>
         </is>
       </c>
       <c r="C1365" t="inlineStr">
         <is>
-          <t>12.703.057,02</t>
+          <t>12.344.687,56</t>
         </is>
       </c>
       <c r="D1365" t="inlineStr">
@@ -40217,21 +40217,21 @@
         </is>
       </c>
       <c r="G1365" t="n">
-        <v>1.70202369600495e+17</v>
+        <v>1.70202389600495e+17</v>
       </c>
     </row>
     <row r="1366">
       <c r="A1366" t="n">
-        <v>477949</v>
+        <v>477955</v>
       </c>
       <c r="B1366" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG553745</t>
+          <t>8ADUWNFPVRG556727</t>
         </is>
       </c>
       <c r="C1366" t="inlineStr">
         <is>
-          <t>12.703.057,02</t>
+          <t>12.075.932,66</t>
         </is>
       </c>
       <c r="D1366" t="inlineStr">
@@ -40250,21 +40250,21 @@
         </is>
       </c>
       <c r="G1366" t="n">
-        <v>1.70202399600495e+17</v>
+        <v>1.70202319600495e+17</v>
       </c>
     </row>
     <row r="1367">
       <c r="A1367" t="n">
-        <v>477945</v>
+        <v>477954</v>
       </c>
       <c r="B1367" t="inlineStr">
         <is>
-          <t>8ADUWNFPARG555964</t>
+          <t>8ADUWNFPVRG556731</t>
         </is>
       </c>
       <c r="C1367" t="inlineStr">
         <is>
-          <t>12.344.687,56</t>
+          <t>12.075.932,66</t>
         </is>
       </c>
       <c r="D1367" t="inlineStr">
@@ -40283,21 +40283,21 @@
         </is>
       </c>
       <c r="G1367" t="n">
-        <v>1.70202339600495e+17</v>
+        <v>1.70202349600495e+17</v>
       </c>
     </row>
     <row r="1368">
       <c r="A1368" t="n">
-        <v>477944</v>
+        <v>477953</v>
       </c>
       <c r="B1368" t="inlineStr">
         <is>
-          <t>8ADUWNFPARG556884</t>
+          <t>8ADUWNFPVRG558137</t>
         </is>
       </c>
       <c r="C1368" t="inlineStr">
         <is>
-          <t>12.344.687,56</t>
+          <t>12.075.932,66</t>
         </is>
       </c>
       <c r="D1368" t="inlineStr">
@@ -40316,21 +40316,21 @@
         </is>
       </c>
       <c r="G1368" t="n">
-        <v>1.70202369600495e+17</v>
+        <v>1.70202339600495e+17</v>
       </c>
     </row>
     <row r="1369">
       <c r="A1369" t="n">
-        <v>477943</v>
+        <v>477950</v>
       </c>
       <c r="B1369" t="inlineStr">
         <is>
-          <t>8ADUWNFPARG556898</t>
+          <t>8ADUWNFPVRG553733</t>
         </is>
       </c>
       <c r="C1369" t="inlineStr">
         <is>
-          <t>12.344.687,56</t>
+          <t>12.703.057,02</t>
         </is>
       </c>
       <c r="D1369" t="inlineStr">
@@ -40349,21 +40349,21 @@
         </is>
       </c>
       <c r="G1369" t="n">
-        <v>1.70202359600495e+17</v>
+        <v>1.70202369600495e+17</v>
       </c>
     </row>
     <row r="1370">
       <c r="A1370" t="n">
-        <v>477942</v>
+        <v>477949</v>
       </c>
       <c r="B1370" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG556337</t>
+          <t>8ADUWNFPVRG553745</t>
         </is>
       </c>
       <c r="C1370" t="inlineStr">
         <is>
-          <t>11.538.422,83</t>
+          <t>12.703.057,02</t>
         </is>
       </c>
       <c r="D1370" t="inlineStr">
@@ -40387,16 +40387,16 @@
     </row>
     <row r="1371">
       <c r="A1371" t="n">
-        <v>477941</v>
+        <v>477945</v>
       </c>
       <c r="B1371" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG557534</t>
+          <t>8ADUWNFPARG555964</t>
         </is>
       </c>
       <c r="C1371" t="inlineStr">
         <is>
-          <t>11.538.422,83</t>
+          <t>12.344.687,56</t>
         </is>
       </c>
       <c r="D1371" t="inlineStr">
@@ -40415,21 +40415,21 @@
         </is>
       </c>
       <c r="G1371" t="n">
-        <v>1.70202329600495e+17</v>
+        <v>1.70202339600495e+17</v>
       </c>
     </row>
     <row r="1372">
       <c r="A1372" t="n">
-        <v>477940</v>
+        <v>477944</v>
       </c>
       <c r="B1372" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG556307</t>
+          <t>8ADUWNFPARG556884</t>
         </is>
       </c>
       <c r="C1372" t="inlineStr">
         <is>
-          <t>12.075.932,66</t>
+          <t>12.344.687,56</t>
         </is>
       </c>
       <c r="D1372" t="inlineStr">
@@ -40453,16 +40453,16 @@
     </row>
     <row r="1373">
       <c r="A1373" t="n">
-        <v>477850</v>
+        <v>477943</v>
       </c>
       <c r="B1373" t="inlineStr">
         <is>
-          <t>8ADUWNFPVRG558097</t>
+          <t>8ADUWNFPARG556898</t>
         </is>
       </c>
       <c r="C1373" t="inlineStr">
         <is>
-          <t>12.075.932,66</t>
+          <t>12.344.687,56</t>
         </is>
       </c>
       <c r="D1373" t="inlineStr">
@@ -40481,153 +40481,153 @@
         </is>
       </c>
       <c r="G1373" t="n">
-        <v>1.70202399600495e+17</v>
+        <v>1.70202359600495e+17</v>
       </c>
     </row>
     <row r="1374">
       <c r="A1374" t="n">
-        <v>472730</v>
+        <v>477942</v>
       </c>
       <c r="B1374" t="inlineStr">
         <is>
-          <t>8AWBJ6B26RA802091</t>
+          <t>8ADUWNFPVRG556337</t>
         </is>
       </c>
       <c r="C1374" t="inlineStr">
         <is>
-          <t>24.966.661,43</t>
+          <t>11.538.422,83</t>
         </is>
       </c>
       <c r="D1374" t="inlineStr">
         <is>
-          <t>05/01/2024</t>
+          <t>12/01/2024</t>
         </is>
       </c>
       <c r="E1374" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="F1374" t="inlineStr">
         <is>
-          <t>ROLEN</t>
+          <t>AVANT</t>
         </is>
       </c>
       <c r="G1374" t="n">
-        <v>416986</v>
+        <v>1.70202399600495e+17</v>
       </c>
     </row>
     <row r="1375">
       <c r="A1375" t="n">
-        <v>472770</v>
+        <v>477941</v>
       </c>
       <c r="B1375" t="inlineStr">
         <is>
-          <t>8AWDB22HXRA012358</t>
+          <t>8ADUWNFPVRG557534</t>
         </is>
       </c>
       <c r="C1375" t="inlineStr">
         <is>
-          <t>23.663.717,14</t>
+          <t>11.538.422,83</t>
         </is>
       </c>
       <c r="D1375" t="inlineStr">
         <is>
-          <t>05/01/2024</t>
+          <t>12/01/2024</t>
         </is>
       </c>
       <c r="E1375" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="F1375" t="inlineStr">
         <is>
-          <t>ROLEN</t>
+          <t>AVANT</t>
         </is>
       </c>
       <c r="G1375" t="n">
-        <v>416987</v>
+        <v>1.70202329600495e+17</v>
       </c>
     </row>
     <row r="1376">
       <c r="A1376" t="n">
-        <v>472783</v>
+        <v>477940</v>
       </c>
       <c r="B1376" t="inlineStr">
         <is>
-          <t>8AWBJ6B26RA806335</t>
+          <t>8ADUWNFPVRG556307</t>
         </is>
       </c>
       <c r="C1376" t="inlineStr">
         <is>
-          <t>24.966.661,43</t>
+          <t>12.075.932,66</t>
         </is>
       </c>
       <c r="D1376" t="inlineStr">
         <is>
-          <t>05/01/2024</t>
+          <t>12/01/2024</t>
         </is>
       </c>
       <c r="E1376" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="F1376" t="inlineStr">
         <is>
-          <t>ROLEN</t>
+          <t>AVANT</t>
         </is>
       </c>
       <c r="G1376" t="n">
-        <v>416988</v>
+        <v>1.70202369600495e+17</v>
       </c>
     </row>
     <row r="1377">
       <c r="A1377" t="n">
-        <v>472832</v>
+        <v>477850</v>
       </c>
       <c r="B1377" t="inlineStr">
         <is>
-          <t>8AWBJ6B26RA806156</t>
+          <t>8ADUWNFPVRG558097</t>
         </is>
       </c>
       <c r="C1377" t="inlineStr">
         <is>
-          <t>24.966.661,43</t>
+          <t>12.075.932,66</t>
         </is>
       </c>
       <c r="D1377" t="inlineStr">
         <is>
-          <t>05/01/2024</t>
+          <t>12/01/2024</t>
         </is>
       </c>
       <c r="E1377" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="F1377" t="inlineStr">
         <is>
-          <t>ROLEN</t>
+          <t>AVANT</t>
         </is>
       </c>
       <c r="G1377" t="n">
-        <v>416989</v>
+        <v>1.70202399600495e+17</v>
       </c>
     </row>
     <row r="1378">
       <c r="A1378" t="n">
-        <v>472863</v>
+        <v>472730</v>
       </c>
       <c r="B1378" t="inlineStr">
         <is>
-          <t>8AWDB22H4RA012632</t>
+          <t>8AWBJ6B26RA802091</t>
         </is>
       </c>
       <c r="C1378" t="inlineStr">
         <is>
-          <t>20.612.425,70</t>
+          <t>24.966.661,43</t>
         </is>
       </c>
       <c r="D1378" t="inlineStr">
@@ -40646,21 +40646,21 @@
         </is>
       </c>
       <c r="G1378" t="n">
-        <v>416990</v>
+        <v>416986</v>
       </c>
     </row>
     <row r="1379">
       <c r="A1379" t="n">
-        <v>472888</v>
+        <v>472770</v>
       </c>
       <c r="B1379" t="inlineStr">
         <is>
-          <t>8AWDD22H4RA012284</t>
+          <t>8AWDB22HXRA012358</t>
         </is>
       </c>
       <c r="C1379" t="inlineStr">
         <is>
-          <t>20.644.342,34</t>
+          <t>23.663.717,14</t>
         </is>
       </c>
       <c r="D1379" t="inlineStr">
@@ -40679,21 +40679,21 @@
         </is>
       </c>
       <c r="G1379" t="n">
-        <v>416991</v>
+        <v>416987</v>
       </c>
     </row>
     <row r="1380">
       <c r="A1380" t="n">
-        <v>472904</v>
+        <v>472783</v>
       </c>
       <c r="B1380" t="inlineStr">
         <is>
-          <t>8AWBJ6B27RA806165</t>
+          <t>8AWBJ6B26RA806335</t>
         </is>
       </c>
       <c r="C1380" t="inlineStr">
         <is>
-          <t>22.365.461,54</t>
+          <t>24.966.661,43</t>
         </is>
       </c>
       <c r="D1380" t="inlineStr">
@@ -40712,31 +40712,31 @@
         </is>
       </c>
       <c r="G1380" t="n">
-        <v>416992</v>
+        <v>416988</v>
       </c>
     </row>
     <row r="1381">
       <c r="A1381" t="n">
-        <v>472667</v>
+        <v>472832</v>
       </c>
       <c r="B1381" t="inlineStr">
         <is>
-          <t>8AWDD22H9RA012278</t>
+          <t>8AWBJ6B26RA806156</t>
         </is>
       </c>
       <c r="C1381" t="inlineStr">
         <is>
-          <t>18.166.908,81</t>
+          <t>24.966.661,43</t>
         </is>
       </c>
       <c r="D1381" t="inlineStr">
         <is>
-          <t>09/01/2024</t>
+          <t>05/01/2024</t>
         </is>
       </c>
       <c r="E1381" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="F1381" t="inlineStr">
@@ -40745,31 +40745,31 @@
         </is>
       </c>
       <c r="G1381" t="n">
-        <v>417132</v>
+        <v>416989</v>
       </c>
     </row>
     <row r="1382">
       <c r="A1382" t="n">
-        <v>473158</v>
+        <v>472863</v>
       </c>
       <c r="B1382" t="inlineStr">
         <is>
-          <t>8AWBJ6B27RA806506</t>
+          <t>8AWDB22H4RA012632</t>
         </is>
       </c>
       <c r="C1382" t="inlineStr">
         <is>
-          <t>22.365.461,54</t>
+          <t>20.612.425,70</t>
         </is>
       </c>
       <c r="D1382" t="inlineStr">
         <is>
-          <t>09/01/2024</t>
+          <t>05/01/2024</t>
         </is>
       </c>
       <c r="E1382" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="F1382" t="inlineStr">
@@ -40778,31 +40778,31 @@
         </is>
       </c>
       <c r="G1382" t="n">
-        <v>417133</v>
+        <v>416990</v>
       </c>
     </row>
     <row r="1383">
       <c r="A1383" t="n">
-        <v>473159</v>
+        <v>472888</v>
       </c>
       <c r="B1383" t="inlineStr">
         <is>
-          <t>9BWAL5BZ7RT625307</t>
+          <t>8AWDD22H4RA012284</t>
         </is>
       </c>
       <c r="C1383" t="inlineStr">
         <is>
-          <t>11.638.410,57</t>
+          <t>20.644.342,34</t>
         </is>
       </c>
       <c r="D1383" t="inlineStr">
         <is>
-          <t>09/01/2024</t>
+          <t>05/01/2024</t>
         </is>
       </c>
       <c r="E1383" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="F1383" t="inlineStr">
@@ -40811,31 +40811,31 @@
         </is>
       </c>
       <c r="G1383" t="n">
-        <v>417134</v>
+        <v>416991</v>
       </c>
     </row>
     <row r="1384">
       <c r="A1384" t="n">
-        <v>473165</v>
+        <v>472904</v>
       </c>
       <c r="B1384" t="inlineStr">
         <is>
-          <t>8AWDW22H6RA012832</t>
+          <t>8AWBJ6B27RA806165</t>
         </is>
       </c>
       <c r="C1384" t="inlineStr">
         <is>
-          <t>32.451.876,31</t>
+          <t>22.365.461,54</t>
         </is>
       </c>
       <c r="D1384" t="inlineStr">
         <is>
-          <t>09/01/2024</t>
+          <t>05/01/2024</t>
         </is>
       </c>
       <c r="E1384" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="F1384" t="inlineStr">
@@ -40844,21 +40844,21 @@
         </is>
       </c>
       <c r="G1384" t="n">
-        <v>417135</v>
+        <v>416992</v>
       </c>
     </row>
     <row r="1385">
       <c r="A1385" t="n">
-        <v>473197</v>
+        <v>472667</v>
       </c>
       <c r="B1385" t="inlineStr">
         <is>
-          <t>8AWDW22H9RA009956</t>
+          <t>8AWDD22H9RA012278</t>
         </is>
       </c>
       <c r="C1385" t="inlineStr">
         <is>
-          <t>26.921.268,85</t>
+          <t>18.166.908,81</t>
         </is>
       </c>
       <c r="D1385" t="inlineStr">
@@ -40877,21 +40877,21 @@
         </is>
       </c>
       <c r="G1385" t="n">
-        <v>417136</v>
+        <v>417132</v>
       </c>
     </row>
     <row r="1386">
       <c r="A1386" t="n">
-        <v>473219</v>
+        <v>473158</v>
       </c>
       <c r="B1386" t="inlineStr">
         <is>
-          <t>9BWAL5BZ7RT631060</t>
+          <t>8AWBJ6B27RA806506</t>
         </is>
       </c>
       <c r="C1386" t="inlineStr">
         <is>
-          <t>11.638.410,57</t>
+          <t>22.365.461,54</t>
         </is>
       </c>
       <c r="D1386" t="inlineStr">
@@ -40910,16 +40910,16 @@
         </is>
       </c>
       <c r="G1386" t="n">
-        <v>417137</v>
+        <v>417133</v>
       </c>
     </row>
     <row r="1387">
       <c r="A1387" t="n">
-        <v>473228</v>
+        <v>473159</v>
       </c>
       <c r="B1387" t="inlineStr">
         <is>
-          <t>9BWAL5BZ7RT631933</t>
+          <t>9BWAL5BZ7RT625307</t>
         </is>
       </c>
       <c r="C1387" t="inlineStr">
@@ -40943,21 +40943,21 @@
         </is>
       </c>
       <c r="G1387" t="n">
-        <v>417138</v>
+        <v>417134</v>
       </c>
     </row>
     <row r="1388">
       <c r="A1388" t="n">
-        <v>473236</v>
+        <v>473165</v>
       </c>
       <c r="B1388" t="inlineStr">
         <is>
-          <t>8AWBJ6B26RA806478</t>
+          <t>8AWDW22H6RA012832</t>
         </is>
       </c>
       <c r="C1388" t="inlineStr">
         <is>
-          <t>24.966.661,43</t>
+          <t>32.451.876,31</t>
         </is>
       </c>
       <c r="D1388" t="inlineStr">
@@ -40976,21 +40976,21 @@
         </is>
       </c>
       <c r="G1388" t="n">
-        <v>417139</v>
+        <v>417135</v>
       </c>
     </row>
     <row r="1389">
       <c r="A1389" t="n">
-        <v>473239</v>
+        <v>473197</v>
       </c>
       <c r="B1389" t="inlineStr">
         <is>
-          <t>9BWAL5BZ7RT627333</t>
+          <t>8AWDW22H9RA009956</t>
         </is>
       </c>
       <c r="C1389" t="inlineStr">
         <is>
-          <t>11.638.410,57</t>
+          <t>26.921.268,85</t>
         </is>
       </c>
       <c r="D1389" t="inlineStr">
@@ -41009,21 +41009,21 @@
         </is>
       </c>
       <c r="G1389" t="n">
-        <v>417140</v>
+        <v>417136</v>
       </c>
     </row>
     <row r="1390">
       <c r="A1390" t="n">
-        <v>473241</v>
+        <v>473219</v>
       </c>
       <c r="B1390" t="inlineStr">
         <is>
-          <t>8AWBJ6B26RA806531</t>
+          <t>9BWAL5BZ7RT631060</t>
         </is>
       </c>
       <c r="C1390" t="inlineStr">
         <is>
-          <t>22.365.461,54</t>
+          <t>11.638.410,57</t>
         </is>
       </c>
       <c r="D1390" t="inlineStr">
@@ -41042,16 +41042,16 @@
         </is>
       </c>
       <c r="G1390" t="n">
-        <v>417141</v>
+        <v>417137</v>
       </c>
     </row>
     <row r="1391">
       <c r="A1391" t="n">
-        <v>473244</v>
+        <v>473228</v>
       </c>
       <c r="B1391" t="inlineStr">
         <is>
-          <t>9BWAL5BZ7RT627803</t>
+          <t>9BWAL5BZ7RT631933</t>
         </is>
       </c>
       <c r="C1391" t="inlineStr">
@@ -41075,21 +41075,21 @@
         </is>
       </c>
       <c r="G1391" t="n">
-        <v>417142</v>
+        <v>417138</v>
       </c>
     </row>
     <row r="1392">
       <c r="A1392" t="n">
-        <v>473246</v>
+        <v>473236</v>
       </c>
       <c r="B1392" t="inlineStr">
         <is>
-          <t>8AWBJ6B26RA806545</t>
+          <t>8AWBJ6B26RA806478</t>
         </is>
       </c>
       <c r="C1392" t="inlineStr">
         <is>
-          <t>22.365.461,54</t>
+          <t>24.966.661,43</t>
         </is>
       </c>
       <c r="D1392" t="inlineStr">
@@ -41108,21 +41108,21 @@
         </is>
       </c>
       <c r="G1392" t="n">
-        <v>417143</v>
+        <v>417139</v>
       </c>
     </row>
     <row r="1393">
       <c r="A1393" t="n">
-        <v>473247</v>
+        <v>473239</v>
       </c>
       <c r="B1393" t="inlineStr">
         <is>
-          <t>9BWCH6CH9RP021661</t>
+          <t>9BWAL5BZ7RT627333</t>
         </is>
       </c>
       <c r="C1393" t="inlineStr">
         <is>
-          <t>12.345.436,90</t>
+          <t>11.638.410,57</t>
         </is>
       </c>
       <c r="D1393" t="inlineStr">
@@ -41141,21 +41141,21 @@
         </is>
       </c>
       <c r="G1393" t="n">
-        <v>417144</v>
+        <v>417140</v>
       </c>
     </row>
     <row r="1394">
       <c r="A1394" t="n">
-        <v>473248</v>
+        <v>473241</v>
       </c>
       <c r="B1394" t="inlineStr">
         <is>
-          <t>9BWAL5BZ7RT628501</t>
+          <t>8AWBJ6B26RA806531</t>
         </is>
       </c>
       <c r="C1394" t="inlineStr">
         <is>
-          <t>11.638.410,57</t>
+          <t>22.365.461,54</t>
         </is>
       </c>
       <c r="D1394" t="inlineStr">
@@ -41174,21 +41174,21 @@
         </is>
       </c>
       <c r="G1394" t="n">
-        <v>417145</v>
+        <v>417141</v>
       </c>
     </row>
     <row r="1395">
       <c r="A1395" t="n">
-        <v>473307</v>
+        <v>473244</v>
       </c>
       <c r="B1395" t="inlineStr">
         <is>
-          <t>8AWDB22H7RA012821</t>
+          <t>9BWAL5BZ7RT627803</t>
         </is>
       </c>
       <c r="C1395" t="inlineStr">
         <is>
-          <t>20.612.425,70</t>
+          <t>11.638.410,57</t>
         </is>
       </c>
       <c r="D1395" t="inlineStr">
@@ -41207,21 +41207,21 @@
         </is>
       </c>
       <c r="G1395" t="n">
-        <v>417146</v>
+        <v>417142</v>
       </c>
     </row>
     <row r="1396">
       <c r="A1396" t="n">
-        <v>473308</v>
+        <v>473246</v>
       </c>
       <c r="B1396" t="inlineStr">
         <is>
-          <t>8AWDB22H7RA012849</t>
+          <t>8AWBJ6B26RA806545</t>
         </is>
       </c>
       <c r="C1396" t="inlineStr">
         <is>
-          <t>22.536.323,58</t>
+          <t>22.365.461,54</t>
         </is>
       </c>
       <c r="D1396" t="inlineStr">
@@ -41240,21 +41240,21 @@
         </is>
       </c>
       <c r="G1396" t="n">
-        <v>417147</v>
+        <v>417143</v>
       </c>
     </row>
     <row r="1397">
       <c r="A1397" t="n">
-        <v>473319</v>
+        <v>473247</v>
       </c>
       <c r="B1397" t="inlineStr">
         <is>
-          <t>9BWAL5BZ7RT635559</t>
+          <t>9BWCH6CH9RP021661</t>
         </is>
       </c>
       <c r="C1397" t="inlineStr">
         <is>
-          <t>11.638.410,57</t>
+          <t>12.345.436,90</t>
         </is>
       </c>
       <c r="D1397" t="inlineStr">
@@ -41273,21 +41273,21 @@
         </is>
       </c>
       <c r="G1397" t="n">
-        <v>417148</v>
+        <v>417144</v>
       </c>
     </row>
     <row r="1398">
       <c r="A1398" t="n">
-        <v>473379</v>
+        <v>473248</v>
       </c>
       <c r="B1398" t="inlineStr">
         <is>
-          <t>9BWAL5BZ6RT625833</t>
+          <t>9BWAL5BZ7RT628501</t>
         </is>
       </c>
       <c r="C1398" t="inlineStr">
         <is>
-          <t>10.380.009,30</t>
+          <t>11.638.410,57</t>
         </is>
       </c>
       <c r="D1398" t="inlineStr">
@@ -41306,21 +41306,21 @@
         </is>
       </c>
       <c r="G1398" t="n">
-        <v>417149</v>
+        <v>417145</v>
       </c>
     </row>
     <row r="1399">
       <c r="A1399" t="n">
-        <v>473383</v>
+        <v>473307</v>
       </c>
       <c r="B1399" t="inlineStr">
         <is>
-          <t>9BWAL5BZ6RT626089</t>
+          <t>8AWDB22H7RA012821</t>
         </is>
       </c>
       <c r="C1399" t="inlineStr">
         <is>
-          <t>10.380.009,30</t>
+          <t>20.612.425,70</t>
         </is>
       </c>
       <c r="D1399" t="inlineStr">
@@ -41339,31 +41339,31 @@
         </is>
       </c>
       <c r="G1399" t="n">
-        <v>417150</v>
+        <v>417146</v>
       </c>
     </row>
     <row r="1400">
       <c r="A1400" t="n">
-        <v>472542</v>
+        <v>473308</v>
       </c>
       <c r="B1400" t="inlineStr">
         <is>
-          <t>8AWBJ6B26RA806030</t>
+          <t>8AWDB22H7RA012849</t>
         </is>
       </c>
       <c r="C1400" t="inlineStr">
         <is>
-          <t>20.142.196,52</t>
+          <t>22.536.323,58</t>
         </is>
       </c>
       <c r="D1400" t="inlineStr">
         <is>
-          <t>04/01/2024</t>
+          <t>09/01/2024</t>
         </is>
       </c>
       <c r="E1400" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="F1400" t="inlineStr">
@@ -41372,31 +41372,31 @@
         </is>
       </c>
       <c r="G1400" t="n">
-        <v>1.702023396004916e+17</v>
+        <v>417147</v>
       </c>
     </row>
     <row r="1401">
       <c r="A1401" t="n">
-        <v>472447</v>
+        <v>473319</v>
       </c>
       <c r="B1401" t="inlineStr">
         <is>
-          <t>8AWBJ6B21RA805822</t>
+          <t>9BWAL5BZ7RT635559</t>
         </is>
       </c>
       <c r="C1401" t="inlineStr">
         <is>
-          <t>20.142.196,52</t>
+          <t>11.638.410,57</t>
         </is>
       </c>
       <c r="D1401" t="inlineStr">
         <is>
-          <t>04/01/2024</t>
+          <t>09/01/2024</t>
         </is>
       </c>
       <c r="E1401" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="F1401" t="inlineStr">
@@ -41405,31 +41405,31 @@
         </is>
       </c>
       <c r="G1401" t="n">
-        <v>1.702023696004916e+17</v>
+        <v>417148</v>
       </c>
     </row>
     <row r="1402">
       <c r="A1402" t="n">
-        <v>472394</v>
+        <v>473379</v>
       </c>
       <c r="B1402" t="inlineStr">
         <is>
-          <t>8AWBJ6B26RA805704</t>
+          <t>9BWAL5BZ6RT625833</t>
         </is>
       </c>
       <c r="C1402" t="inlineStr">
         <is>
-          <t>20.142.196,52</t>
+          <t>10.380.009,30</t>
         </is>
       </c>
       <c r="D1402" t="inlineStr">
         <is>
-          <t>04/01/2024</t>
+          <t>09/01/2024</t>
         </is>
       </c>
       <c r="E1402" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="F1402" t="inlineStr">
@@ -41438,31 +41438,31 @@
         </is>
       </c>
       <c r="G1402" t="n">
-        <v>1.702023596004916e+17</v>
+        <v>417149</v>
       </c>
     </row>
     <row r="1403">
       <c r="A1403" t="n">
-        <v>472357</v>
+        <v>473383</v>
       </c>
       <c r="B1403" t="inlineStr">
         <is>
-          <t>8AWBJ6B26RA805881</t>
+          <t>9BWAL5BZ6RT626089</t>
         </is>
       </c>
       <c r="C1403" t="inlineStr">
         <is>
-          <t>20.142.196,54</t>
+          <t>10.380.009,30</t>
         </is>
       </c>
       <c r="D1403" t="inlineStr">
         <is>
-          <t>04/01/2024</t>
+          <t>09/01/2024</t>
         </is>
       </c>
       <c r="E1403" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="F1403" t="inlineStr">
@@ -41471,16 +41471,16 @@
         </is>
       </c>
       <c r="G1403" t="n">
-        <v>1.702023996004916e+17</v>
+        <v>417150</v>
       </c>
     </row>
     <row r="1404">
       <c r="A1404" t="n">
-        <v>472202</v>
+        <v>472542</v>
       </c>
       <c r="B1404" t="inlineStr">
         <is>
-          <t>8AWBJ6B29RA805826</t>
+          <t>8AWBJ6B26RA806030</t>
         </is>
       </c>
       <c r="C1404" t="inlineStr">
@@ -41504,31 +41504,31 @@
         </is>
       </c>
       <c r="G1404" t="n">
-        <v>1.702023296004916e+17</v>
+        <v>1.702023396004916e+17</v>
       </c>
     </row>
     <row r="1405">
       <c r="A1405" t="n">
-        <v>473498</v>
+        <v>472447</v>
       </c>
       <c r="B1405" t="inlineStr">
         <is>
-          <t>9BWAL5BZ6RT635357</t>
+          <t>8AWBJ6B21RA805822</t>
         </is>
       </c>
       <c r="C1405" t="inlineStr">
         <is>
-          <t>11.638.410,57</t>
+          <t>20.142.196,52</t>
         </is>
       </c>
       <c r="D1405" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>04/01/2024</t>
         </is>
       </c>
       <c r="E1405" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="F1405" t="inlineStr">
@@ -41537,31 +41537,31 @@
         </is>
       </c>
       <c r="G1405" t="n">
-        <v>1.702023896004927e+17</v>
+        <v>1.702023696004916e+17</v>
       </c>
     </row>
     <row r="1406">
       <c r="A1406" t="n">
-        <v>473494</v>
+        <v>472394</v>
       </c>
       <c r="B1406" t="inlineStr">
         <is>
-          <t>9BWAL5BZ6RT633043</t>
+          <t>8AWBJ6B26RA805704</t>
         </is>
       </c>
       <c r="C1406" t="inlineStr">
         <is>
-          <t>11.638.410,57</t>
+          <t>20.142.196,52</t>
         </is>
       </c>
       <c r="D1406" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>04/01/2024</t>
         </is>
       </c>
       <c r="E1406" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="F1406" t="inlineStr">
@@ -41570,31 +41570,31 @@
         </is>
       </c>
       <c r="G1406" t="n">
-        <v>1.702023196004927e+17</v>
+        <v>1.702023596004916e+17</v>
       </c>
     </row>
     <row r="1407">
       <c r="A1407" t="n">
-        <v>473490</v>
+        <v>472357</v>
       </c>
       <c r="B1407" t="inlineStr">
         <is>
-          <t>9BWAL5BZ6RT633009</t>
+          <t>8AWBJ6B26RA805881</t>
         </is>
       </c>
       <c r="C1407" t="inlineStr">
         <is>
-          <t>11.638.410,57</t>
+          <t>20.142.196,54</t>
         </is>
       </c>
       <c r="D1407" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>04/01/2024</t>
         </is>
       </c>
       <c r="E1407" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="F1407" t="inlineStr">
@@ -41603,31 +41603,31 @@
         </is>
       </c>
       <c r="G1407" t="n">
-        <v>1.702023096004927e+17</v>
+        <v>1.702023996004916e+17</v>
       </c>
     </row>
     <row r="1408">
       <c r="A1408" t="n">
-        <v>473469</v>
+        <v>472202</v>
       </c>
       <c r="B1408" t="inlineStr">
         <is>
-          <t>9BWAL5BZ6RT628215</t>
+          <t>8AWBJ6B29RA805826</t>
         </is>
       </c>
       <c r="C1408" t="inlineStr">
         <is>
-          <t>10.380.009,30</t>
+          <t>20.142.196,52</t>
         </is>
       </c>
       <c r="D1408" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>04/01/2024</t>
         </is>
       </c>
       <c r="E1408" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="F1408" t="inlineStr">
@@ -41636,21 +41636,21 @@
         </is>
       </c>
       <c r="G1408" t="n">
-        <v>1.702023496004927e+17</v>
+        <v>1.702023296004916e+17</v>
       </c>
     </row>
     <row r="1409">
       <c r="A1409" t="n">
-        <v>473464</v>
+        <v>473498</v>
       </c>
       <c r="B1409" t="inlineStr">
         <is>
-          <t>9BWAL5BZ6RT626402</t>
+          <t>9BWAL5BZ6RT635357</t>
         </is>
       </c>
       <c r="C1409" t="inlineStr">
         <is>
-          <t>10.380.009,30</t>
+          <t>11.638.410,57</t>
         </is>
       </c>
       <c r="D1409" t="inlineStr">
@@ -41669,21 +41669,21 @@
         </is>
       </c>
       <c r="G1409" t="n">
-        <v>1.702023696004927e+17</v>
+        <v>1.702023896004927e+17</v>
       </c>
     </row>
     <row r="1410">
       <c r="A1410" t="n">
-        <v>473455</v>
+        <v>473494</v>
       </c>
       <c r="B1410" t="inlineStr">
         <is>
-          <t>8AWBJ6B26RA806223</t>
+          <t>9BWAL5BZ6RT633043</t>
         </is>
       </c>
       <c r="C1410" t="inlineStr">
         <is>
-          <t>24.966.661,43</t>
+          <t>11.638.410,57</t>
         </is>
       </c>
       <c r="D1410" t="inlineStr">
@@ -41702,16 +41702,16 @@
         </is>
       </c>
       <c r="G1410" t="n">
-        <v>1.702023596004927e+17</v>
+        <v>1.702023196004927e+17</v>
       </c>
     </row>
     <row r="1411">
       <c r="A1411" t="n">
-        <v>473454</v>
+        <v>473490</v>
       </c>
       <c r="B1411" t="inlineStr">
         <is>
-          <t>9BWAL5BZ7RT625338</t>
+          <t>9BWAL5BZ6RT633009</t>
         </is>
       </c>
       <c r="C1411" t="inlineStr">
@@ -41735,21 +41735,21 @@
         </is>
       </c>
       <c r="G1411" t="n">
-        <v>1.702023996004927e+17</v>
+        <v>1.702023096004927e+17</v>
       </c>
     </row>
     <row r="1412">
       <c r="A1412" t="n">
-        <v>473450</v>
+        <v>473469</v>
       </c>
       <c r="B1412" t="inlineStr">
         <is>
-          <t>8AWBJ6B26RA805993</t>
+          <t>9BWAL5BZ6RT628215</t>
         </is>
       </c>
       <c r="C1412" t="inlineStr">
         <is>
-          <t>24.966.661,43</t>
+          <t>10.380.009,30</t>
         </is>
       </c>
       <c r="D1412" t="inlineStr">
@@ -41768,16 +41768,16 @@
         </is>
       </c>
       <c r="G1412" t="n">
-        <v>1.702023296004927e+17</v>
+        <v>1.702023496004927e+17</v>
       </c>
     </row>
     <row r="1413">
       <c r="A1413" t="n">
-        <v>473424</v>
+        <v>473464</v>
       </c>
       <c r="B1413" t="inlineStr">
         <is>
-          <t>9BWAL5BZ6RT626349</t>
+          <t>9BWAL5BZ6RT626402</t>
         </is>
       </c>
       <c r="C1413" t="inlineStr">
@@ -41806,16 +41806,16 @@
     </row>
     <row r="1414">
       <c r="A1414" t="n">
-        <v>473347</v>
+        <v>473455</v>
       </c>
       <c r="B1414" t="inlineStr">
         <is>
-          <t>8AWBJ6B26RA806299</t>
+          <t>8AWBJ6B26RA806223</t>
         </is>
       </c>
       <c r="C1414" t="inlineStr">
         <is>
-          <t>25.215.463,42</t>
+          <t>24.966.661,43</t>
         </is>
       </c>
       <c r="D1414" t="inlineStr">
@@ -41834,31 +41834,31 @@
         </is>
       </c>
       <c r="G1414" t="n">
-        <v>1.702023996004927e+17</v>
+        <v>1.702023596004927e+17</v>
       </c>
     </row>
     <row r="1415">
       <c r="A1415" t="n">
-        <v>473211</v>
+        <v>473454</v>
       </c>
       <c r="B1415" t="inlineStr">
         <is>
-          <t>8AWDW22H8RA010810</t>
+          <t>9BWAL5BZ7RT625338</t>
         </is>
       </c>
       <c r="C1415" t="inlineStr">
         <is>
-          <t>33.291.378,27</t>
+          <t>11.638.410,57</t>
         </is>
       </c>
       <c r="D1415" t="inlineStr">
         <is>
-          <t>11/01/2024</t>
+          <t>10/01/2024</t>
         </is>
       </c>
       <c r="E1415" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="F1415" t="inlineStr">
@@ -41867,31 +41867,31 @@
         </is>
       </c>
       <c r="G1415" t="n">
-        <v>1.702023496004948e+17</v>
+        <v>1.702023996004927e+17</v>
       </c>
     </row>
     <row r="1416">
       <c r="A1416" t="n">
-        <v>474329</v>
+        <v>473450</v>
       </c>
       <c r="B1416" t="inlineStr">
         <is>
-          <t>8AWBJ6B25RA802258</t>
+          <t>8AWBJ6B26RA805993</t>
         </is>
       </c>
       <c r="C1416" t="inlineStr">
         <is>
-          <t>22.365.461,54</t>
+          <t>24.966.661,43</t>
         </is>
       </c>
       <c r="D1416" t="inlineStr">
         <is>
-          <t>15/01/2024</t>
+          <t>10/01/2024</t>
         </is>
       </c>
       <c r="E1416" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="F1416" t="inlineStr">
@@ -41900,31 +41900,31 @@
         </is>
       </c>
       <c r="G1416" t="n">
-        <v>1.702023196004958e+17</v>
+        <v>1.702023296004927e+17</v>
       </c>
     </row>
     <row r="1417">
       <c r="A1417" t="n">
-        <v>473942</v>
+        <v>473424</v>
       </c>
       <c r="B1417" t="inlineStr">
         <is>
-          <t>9BWAL5BZ7RT637618</t>
+          <t>9BWAL5BZ6RT626349</t>
         </is>
       </c>
       <c r="C1417" t="inlineStr">
         <is>
-          <t>11.638.410,57</t>
+          <t>10.380.009,30</t>
         </is>
       </c>
       <c r="D1417" t="inlineStr">
         <is>
-          <t>15/01/2024</t>
+          <t>10/01/2024</t>
         </is>
       </c>
       <c r="E1417" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="F1417" t="inlineStr">
@@ -41933,31 +41933,31 @@
         </is>
       </c>
       <c r="G1417" t="n">
-        <v>1.702023496004958e+17</v>
+        <v>1.702023696004927e+17</v>
       </c>
     </row>
     <row r="1418">
       <c r="A1418" t="n">
-        <v>473940</v>
+        <v>473347</v>
       </c>
       <c r="B1418" t="inlineStr">
         <is>
-          <t>9BWAL5BZ6RT635858</t>
+          <t>8AWBJ6B26RA806299</t>
         </is>
       </c>
       <c r="C1418" t="inlineStr">
         <is>
-          <t>11.638.410,57</t>
+          <t>25.215.463,42</t>
         </is>
       </c>
       <c r="D1418" t="inlineStr">
         <is>
-          <t>15/01/2024</t>
+          <t>10/01/2024</t>
         </is>
       </c>
       <c r="E1418" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="F1418" t="inlineStr">
@@ -41966,31 +41966,31 @@
         </is>
       </c>
       <c r="G1418" t="n">
-        <v>1.702023896004958e+17</v>
+        <v>1.702023996004927e+17</v>
       </c>
     </row>
     <row r="1419">
       <c r="A1419" t="n">
-        <v>474327</v>
+        <v>473211</v>
       </c>
       <c r="B1419" t="inlineStr">
         <is>
-          <t>9BWAL5BZ7RT633830</t>
+          <t>8AWDW22H8RA010810</t>
         </is>
       </c>
       <c r="C1419" t="inlineStr">
         <is>
-          <t>11.638.410,57</t>
+          <t>33.291.378,27</t>
         </is>
       </c>
       <c r="D1419" t="inlineStr">
         <is>
-          <t>15/01/2024</t>
+          <t>11/01/2024</t>
         </is>
       </c>
       <c r="E1419" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="F1419" t="inlineStr">
@@ -41999,39 +41999,171 @@
         </is>
       </c>
       <c r="G1419" t="n">
-        <v>1.702023696004961e+17</v>
+        <v>1.702023496004948e+17</v>
       </c>
     </row>
     <row r="1420">
       <c r="A1420" t="n">
+        <v>474329</v>
+      </c>
+      <c r="B1420" t="inlineStr">
+        <is>
+          <t>8AWBJ6B25RA802258</t>
+        </is>
+      </c>
+      <c r="C1420" t="inlineStr">
+        <is>
+          <t>22.365.461,54</t>
+        </is>
+      </c>
+      <c r="D1420" t="inlineStr">
+        <is>
+          <t>15/01/2024</t>
+        </is>
+      </c>
+      <c r="E1420" t="inlineStr">
+        <is>
+          <t>14/12/2023</t>
+        </is>
+      </c>
+      <c r="F1420" t="inlineStr">
+        <is>
+          <t>ROLEN</t>
+        </is>
+      </c>
+      <c r="G1420" t="n">
+        <v>1.702023196004958e+17</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="n">
+        <v>473942</v>
+      </c>
+      <c r="B1421" t="inlineStr">
+        <is>
+          <t>9BWAL5BZ7RT637618</t>
+        </is>
+      </c>
+      <c r="C1421" t="inlineStr">
+        <is>
+          <t>11.638.410,57</t>
+        </is>
+      </c>
+      <c r="D1421" t="inlineStr">
+        <is>
+          <t>15/01/2024</t>
+        </is>
+      </c>
+      <c r="E1421" t="inlineStr">
+        <is>
+          <t>14/12/2023</t>
+        </is>
+      </c>
+      <c r="F1421" t="inlineStr">
+        <is>
+          <t>ROLEN</t>
+        </is>
+      </c>
+      <c r="G1421" t="n">
+        <v>1.702023496004958e+17</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="n">
+        <v>473940</v>
+      </c>
+      <c r="B1422" t="inlineStr">
+        <is>
+          <t>9BWAL5BZ6RT635858</t>
+        </is>
+      </c>
+      <c r="C1422" t="inlineStr">
+        <is>
+          <t>11.638.410,57</t>
+        </is>
+      </c>
+      <c r="D1422" t="inlineStr">
+        <is>
+          <t>15/01/2024</t>
+        </is>
+      </c>
+      <c r="E1422" t="inlineStr">
+        <is>
+          <t>14/12/2023</t>
+        </is>
+      </c>
+      <c r="F1422" t="inlineStr">
+        <is>
+          <t>ROLEN</t>
+        </is>
+      </c>
+      <c r="G1422" t="n">
+        <v>1.702023896004958e+17</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="n">
+        <v>474327</v>
+      </c>
+      <c r="B1423" t="inlineStr">
+        <is>
+          <t>9BWAL5BZ7RT633830</t>
+        </is>
+      </c>
+      <c r="C1423" t="inlineStr">
+        <is>
+          <t>11.638.410,57</t>
+        </is>
+      </c>
+      <c r="D1423" t="inlineStr">
+        <is>
+          <t>15/01/2024</t>
+        </is>
+      </c>
+      <c r="E1423" t="inlineStr">
+        <is>
+          <t>15/12/2023</t>
+        </is>
+      </c>
+      <c r="F1423" t="inlineStr">
+        <is>
+          <t>ROLEN</t>
+        </is>
+      </c>
+      <c r="G1423" t="n">
+        <v>1.702023696004961e+17</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="n">
         <v>474325</v>
       </c>
-      <c r="B1420" t="inlineStr">
+      <c r="B1424" t="inlineStr">
         <is>
           <t>9BWAL5BZ7RT632029</t>
         </is>
       </c>
-      <c r="C1420" t="inlineStr">
+      <c r="C1424" t="inlineStr">
         <is>
           <t>11.638.410,57</t>
         </is>
       </c>
-      <c r="D1420" t="inlineStr">
+      <c r="D1424" t="inlineStr">
         <is>
           <t>15/01/2024</t>
         </is>
       </c>
-      <c r="E1420" t="inlineStr">
+      <c r="E1424" t="inlineStr">
         <is>
           <t>15/12/2023</t>
         </is>
       </c>
-      <c r="F1420" t="inlineStr">
+      <c r="F1424" t="inlineStr">
         <is>
           <t>ROLEN</t>
         </is>
       </c>
-      <c r="G1420" t="n">
+      <c r="G1424" t="n">
         <v>1.702023996004961e+17</v>
       </c>
     </row>
